--- a/documents/Harjoitustyö tehtävän purku.xlsx
+++ b/documents/Harjoitustyö tehtävän purku.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miquel\Google Drive\Opiskelu\Matemaattinen optimointi 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josianyman/opl/Harkka/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9A532-7752-8F47-B7E0-2395432C5E3C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Oppilaat suorittavat yhdessä kuukaudessa</t>
   </si>
@@ -133,19 +134,111 @@
   </si>
   <si>
     <t>145*0.92^2 + x1 * 4/5*0.92 + x2*4/5</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>Kuukausi</t>
+  </si>
+  <si>
+    <t>Ylimäärä</t>
+  </si>
+  <si>
+    <t>Kustannus</t>
+  </si>
+  <si>
+    <t>Yhteensä</t>
+  </si>
+  <si>
+    <t>Oppilaat (xi)</t>
+  </si>
+  <si>
+    <t>Kysyntä (di)</t>
+  </si>
+  <si>
+    <t>Constraint Name</t>
+  </si>
+  <si>
+    <t>Dual Price</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>−∞</t>
+  </si>
+  <si>
+    <t>∞</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,9 +269,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,42 +702,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -647,27 +745,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -681,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -698,7 +796,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -718,7 +816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -741,7 +839,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -764,7 +862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -787,7 +885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -802,23 +900,23 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G20">
         <f>SUM(G14:G19)</f>
         <v>920</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -829,7 +927,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -843,7 +941,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -857,7 +955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -865,7 +963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -877,22 +975,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>29</v>
       </c>
@@ -906,7 +1006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -939,7 +1039,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -974,7 +1074,7 @@
         <v>92753.333333333343</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1109,7 @@
         <v>105117.33333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1044,7 +1144,7 @@
         <v>105135.54666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1079,7 +1179,7 @@
         <v>111141.10293333334</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1111,13 +1211,17 @@
         <v>108260.74803200002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>920</v>
+      </c>
       <c r="I8">
         <f>SUM(I2:I7)</f>
         <v>608408.06429866678</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -1131,7 +1235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1268,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1303,7 @@
         <v>92600</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1338,7 @@
         <v>105100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1373,7 @@
         <v>105050</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1408,7 @@
         <v>111100</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1336,13 +1440,13 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I18">
         <f>SUM(I12:I17)</f>
         <v>607850</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1356,7 +1460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1493,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1528,7 @@
         <v>92600</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1563,7 @@
         <v>105100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1598,7 @@
         <v>105050</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1633,7 @@
         <v>111100</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1561,13 +1665,590 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I27">
         <f>SUM(I21:I26)</f>
         <v>607850</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>145</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:E35" si="17">D30-C30</f>
+        <v>145</v>
+      </c>
+      <c r="F30">
+        <v>135</v>
+      </c>
+      <c r="G30">
+        <f>E30-F30</f>
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <f>B30*350+C30*600+F30*600+G30*500</f>
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <f>ROUNDUP(B31/15,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f>ROUND(D30*0.92+B30*4/5,0)</f>
+        <v>133</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="17"/>
+        <v>130</v>
+      </c>
+      <c r="F31">
+        <v>125</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G35" si="18">E31-F31</f>
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ref="H31:H35" si="19">B31*350+C31*600+F31*600+G31*500</f>
+        <v>92600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <f>ROUNDUP(B32/15,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f>ROUND(D31*0.92+B31*4/5,0)</f>
+        <v>153</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="F32">
+        <v>150</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="19"/>
+        <v>105100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <f>ROUNDUP(B33/15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>ROUND(D32*0.92+B32*4/5,0)</f>
+        <v>171</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="17"/>
+        <v>170</v>
+      </c>
+      <c r="F33">
+        <v>170</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="19"/>
+        <v>105050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <f>ROUNDUP(B34/15,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f>ROUND(D33*0.92+B33*4/5,0)</f>
+        <v>163</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <v>160</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="19"/>
+        <v>111100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <f>ROUNDUP(B35/15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>ROUND(D34*0.92+B34*4/5,0)</f>
+        <v>180</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="17"/>
+        <v>180</v>
+      </c>
+      <c r="F35">
+        <v>180</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="19"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="3">
+        <f>SUM(H30:H35)</f>
+        <v>607850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>5.9177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>497.45549999999997</v>
+      </c>
+      <c r="C44">
+        <v>-32.069400000000002</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>35.299100000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>536.04899999999998</v>
+      </c>
+      <c r="C45">
+        <v>-34.965000000000003</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>6.6721000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>539.01329999999996</v>
+      </c>
+      <c r="C46">
+        <v>-6.6089000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>35.648400000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>990.75379999999996</v>
+      </c>
+      <c r="C47">
+        <v>147.20349999999999</v>
+      </c>
+      <c r="D47">
+        <v>180</v>
+      </c>
+      <c r="E47">
+        <v>153303.58730000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>5.9177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
+        <v>497.45549999999997</v>
+      </c>
+      <c r="C54">
+        <v>-32.069400000000002</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>35.299100000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>536.04899999999998</v>
+      </c>
+      <c r="C55">
+        <v>-34.965000000000003</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>6.6721000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
+        <v>539.01329999999996</v>
+      </c>
+      <c r="C56">
+        <v>-6.6089000000000002</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>35.648400000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>990.75379999999996</v>
+      </c>
+      <c r="C57">
+        <v>147.20349999999999</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>153303.58730000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>582.66480000000001</v>
+      </c>
+      <c r="C58">
+        <v>139.0257</v>
+      </c>
+      <c r="D58">
+        <v>145</v>
+      </c>
+      <c r="E58">
+        <v>180.191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>100</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>135</v>
+      </c>
+      <c r="E59">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>125</v>
+      </c>
+      <c r="E60">
+        <v>130.9177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>597.45550000000003</v>
+      </c>
+      <c r="C61">
+        <v>117.9306</v>
+      </c>
+      <c r="D61">
+        <v>150</v>
+      </c>
+      <c r="E61">
+        <v>185.29910000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>636.04899999999998</v>
+      </c>
+      <c r="C62">
+        <v>135.035</v>
+      </c>
+      <c r="D62">
+        <v>170</v>
+      </c>
+      <c r="E62">
+        <v>176.6721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63">
+        <v>639.01329999999996</v>
+      </c>
+      <c r="C63">
+        <v>153.39109999999999</v>
+      </c>
+      <c r="D63">
+        <v>160</v>
+      </c>
+      <c r="E63">
+        <v>195.64840000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>180</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>